--- a/EXCEL/poduct.xlsx
+++ b/EXCEL/poduct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,1347 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>продукт 2</t>
+          <t>день Роза</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1200</v>
+        <v>-5155.15</v>
       </c>
       <c r="D2" t="n">
-        <v>10.605</v>
+        <v>59.59330000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12726</v>
+        <v>-307212.400495</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>день Лаванда</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.61</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-348.894</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>день Зрелая</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.8541</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-150.186315</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ночь Роза</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.100000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92.14479999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-469.93848</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ночь Лаванда</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75.36450000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-761.1814500000002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ночь Зрелая</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>82.70475</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-425.9294625000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>гель для умывания</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>126.1196</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3342.1694</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>молочко для умывания</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76.11125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1004.6685</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>гидрофильное масло</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>501.0880000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-4159.030400000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>крем от пигментных пятен</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-9.35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>201.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1881.594</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>крем для лица Увлажняющий</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>245.734</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-503.7547000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>маска для лица Очищающая</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>82.3115</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-814.8838499999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>маска для лица Увлажняющая</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-7.45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>193.1012</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1438.60394</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">маска для лица с АХА-КИСЛОТАМИ </t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="D15" t="n">
+        <v>263.9815</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-409.1713250000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">крем веки Питательный </t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.275</v>
+      </c>
+      <c r="D16" t="n">
+        <v>136.414</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-173.92785</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>крем веки от Первых морщин</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="D17" t="n">
+        <v>149.66</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-327.7554</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>крем веки с Лифтинг эффектом</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.835</v>
+      </c>
+      <c r="D18" t="n">
+        <v>246.3715</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-698.4632024999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>крем веки от Темных кругов</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.995</v>
+      </c>
+      <c r="D19" t="n">
+        <v>223.8715</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-446.6236424999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>сыворотка вокруг глаз</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>690.485</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2140.5035</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>бальзам для губ Медовый</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.666</v>
+      </c>
+      <c r="D21" t="n">
+        <v>889</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-592.0740000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>бальзам для губ Клубничный</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.094</v>
+      </c>
+      <c r="D22" t="n">
+        <v>892.25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1868.3715</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>бальзам для губ Облепиха</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.236</v>
+      </c>
+      <c r="D23" t="n">
+        <v>886.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1095.714</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>бальзам для губ Шоколадный</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.512</v>
+      </c>
+      <c r="D24" t="n">
+        <v>885</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2223.12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>бальзам для губ Апельсиновый</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.218</v>
+      </c>
+      <c r="D25" t="n">
+        <v>890.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1084.8726</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>мусс для умывания</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>135.30375</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-94.71262500000002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>масло для ресниц</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>906.4475</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>тоник</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>354.6259999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1737.6674</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>крем Моллис</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>173.07365</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>сыворотка витаминная БОМБА</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="D30" t="n">
+        <v>151.81015</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1202.336388</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>сыворотка Супер Лифтинг</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-8.879999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>177.8238</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1579.075344</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>сыворотка Анти Акне</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-13.86</v>
+      </c>
+      <c r="D32" t="n">
+        <v>160.81955</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-2228.958963</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>охлаждающий крем для ног</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120.43925</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Крем от растяжек</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>125.57115</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>крем для упругости груди</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110.2012</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-281.0130600000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>интимгель</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>188.38825</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-3296.794374999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>112.4612</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>скраб для тела Крепкий орех</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>170.0735</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>бельди</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>604.5899999999999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>скраб для тела Кофейный с мерцанием</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-16</v>
+      </c>
+      <c r="D40" t="n">
+        <v>149.6684</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-2394.6944</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>скраб для тела кокосовый с мерцанием</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>106.24</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-127.488</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>кератолитик</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>53.4376</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1522.9716</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>шампунь норм</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-14.25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>223.29915</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-3182.0128875</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>шампунь жир</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-10.75</v>
+      </c>
+      <c r="D44" t="n">
+        <v>222.42915</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2391.1133625</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>шампунь сух</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>223.56915</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1676.768625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>бальзам интенсивного восстановления</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="D46" t="n">
+        <v>135.91025</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-645.5736875000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>бальзам для окрашенных волос</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>133.78025</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-401.34075</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>бальзам для волос Питание и блеск</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="D48" t="n">
+        <v>134.4211</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-235.236925</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>маска для волос Укрепляющая</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-129.25</v>
+      </c>
+      <c r="D49" t="n">
+        <v>104.40025</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-13493.7323125</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>маска для волос SOS</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="D50" t="n">
+        <v>143.1422</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-894.6387500000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Маска пилинг </t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-21</v>
+      </c>
+      <c r="D51" t="n">
+        <v>305.79375</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-6421.668750000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>сыворотка против выпадения волос</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>125.15945</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-387.994295</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>гель для стирки белья Альпийская свежесть</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>33.64105</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>гель для стирки белья "Альпийский луг"</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>31.94105</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>гель для стирки белья Морская свежесть</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>31.94105</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>гель для стирки белья Орхидея</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>33.64105</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>жидкое мыло Миндальное молочко</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>30.99015</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>жидкое мыло Орхидея</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29.69015</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>жидкое мыло Мята и ваниль</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>32.99015</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>жидкое мыло Бубль гам</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>30.99015</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>жидкое мыло Детское  без запаха</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>27.99015</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>гель для мытья посуды Лимонная свежесть</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>25.27680000000001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>гель для мытья посуды Бархатная роза</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>25.27680000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>гель для мытья посуды Мускус и фрезии</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>25.27680000000001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>средство для мытья пола Лаванда</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>13.754</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>средство для мытья пола Лимонная свежесть</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13.754</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>средство для мытья пола Манго и маракуйя</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>13.754</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>средство для мытья пола гипоаллергенное, без запаха</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13.79735</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Зеленый чай</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>112.4612</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-494.82928</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Тропический фрукт</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-6.300000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>111.4612</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-702.2055600000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Лайм</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-7.600000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>107.4612</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-816.7051200000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>гелевый дезодорант Мужской</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>106.4612</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-383.26032</v>
       </c>
     </row>
   </sheetData>
